--- a/data/trans_bre/P16A01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,03%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,55; -1,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,19; -1,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 1,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 2,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,39; -15,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,82; -12,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,03; 22,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,83; 32,72</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,9%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 1,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 2,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 2,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 3,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,69; 36,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,13; 32,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,94; 41,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; 57,6</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,41%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 6,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,68; 1,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 4,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,03; 1,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,54; 138,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,48; 24,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,58; 80,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,1; 16,7</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,41%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 0,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 0,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 1,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 1,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,35; 11,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,42; 4,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,95; 27,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,7; 29,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,03%</t>
+          <t>-6,16%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 2,22</t>
+          <t>-3,52; 1,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 32,72</t>
+          <t>-32,96; 28,69</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>21,44%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,06</t>
+          <t>-1,0; 3,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 57,6</t>
+          <t>-14,18; 78,59</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-16,41%</t>
+          <t>-17,04%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 1,13</t>
+          <t>-5,36; 1,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 16,7</t>
+          <t>-45,37; 16,36</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>7,71%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,84</t>
+          <t>-1,26; 2,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 29,46</t>
+          <t>-16,63; 37,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; -1,15</t>
+          <t>-5,56; -1,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,19; -1,11</t>
+          <t>-6,11; -1,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,6</t>
+          <t>-3,83; 1,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 1,97</t>
+          <t>-3,71; 2,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,39; -15,31</t>
+          <t>-52,09; -13,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,82; -12,58</t>
+          <t>-47,5; -11,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,03; 22,62</t>
+          <t>-40,38; 24,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,96; 28,69</t>
+          <t>-34,47; 30,38</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,94</t>
+          <t>-1,39; 1,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,43</t>
+          <t>-1,55; 2,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,89</t>
+          <t>-0,62; 2,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,49</t>
+          <t>-0,74; 3,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 36,46</t>
+          <t>-22,2; 40,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 32,33</t>
+          <t>-16,47; 32,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 41,82</t>
+          <t>-7,58; 42,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 78,59</t>
+          <t>-11,48; 83,34</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 6,56</t>
+          <t>-0,34; 6,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 1,98</t>
+          <t>-6,29; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 4,44</t>
+          <t>-2,12; 4,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 1,15</t>
+          <t>-4,58; 1,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 138,61</t>
+          <t>-4,58; 128,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-52,48; 24,76</t>
+          <t>-48,62; 23,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 80,53</t>
+          <t>-24,28; 83,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 16,36</t>
+          <t>-43,02; 25,14</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,69</t>
+          <t>-1,75; 0,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,4</t>
+          <t>-2,55; 0,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,95</t>
+          <t>-0,8; 1,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,14</t>
+          <t>-1,16; 2,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 11,24</t>
+          <t>-23,42; 11,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 4,49</t>
+          <t>-25,08; 2,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 27,76</t>
+          <t>-9,36; 27,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 37,04</t>
+          <t>-15,3; 37,92</t>
         </is>
       </c>
     </row>
